--- a/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
+++ b/Quick_Heal_POC/src/main/resources/data/URLCATData.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="2" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" r:id="rId1" sheetId="1"/>
-    <sheet name="Cache" r:id="rId2" sheetId="2"/>
-    <sheet name="Server" r:id="rId3" sheetId="3"/>
+    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Cache" sheetId="2" r:id="rId2"/>
+    <sheet name="Server" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="85">
   <si>
     <t>Url</t>
   </si>
@@ -271,19 +271,12 @@
   </si>
   <si>
     <t>Category</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,19 +319,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -355,10 +348,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -393,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,7 +421,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -516,7 +509,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -525,13 +518,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -541,7 +534,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -550,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -559,7 +552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -569,12 +562,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -605,7 +598,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -624,7 +617,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -636,8 +629,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
@@ -645,7 +638,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -834,22 +827,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1017,265 +1010,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="106.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="2" max="2" width="106.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1909,9 +1660,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="www.facebook.com/" r:id="rId1" ref="B12"/>
-    <hyperlink display="www.web.whatsapp.com/??/en" r:id="rId2" ref="B13"/>
+    <hyperlink ref="B12" r:id="rId1" display="www.facebook.com/"/>
+    <hyperlink ref="B13" r:id="rId2" display="www.web.whatsapp.com/??/en"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>